--- a/Excel/Menus.xlsx
+++ b/Excel/Menus.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="667">
   <si>
     <t>STATUS</t>
   </si>
@@ -1090,78 +1090,42 @@
     <t>KPI</t>
   </si>
   <si>
-    <t>User Creation</t>
-  </si>
-  <si>
     <t>219.0</t>
   </si>
   <si>
-    <t>637.0</t>
-  </si>
-  <si>
     <t>Vessel Assignment</t>
   </si>
   <si>
-    <t>2008.0</t>
-  </si>
-  <si>
     <t>267.0</t>
   </si>
   <si>
     <t>User Menu Assignment</t>
   </si>
   <si>
-    <t>18621.0</t>
-  </si>
-  <si>
     <t>268.0</t>
   </si>
   <si>
     <t>Role Menu Assignment</t>
   </si>
   <si>
-    <t>13372.0</t>
-  </si>
-  <si>
     <t>1163.0</t>
   </si>
   <si>
-    <t>233.0</t>
-  </si>
-  <si>
     <t>Search Vessel</t>
   </si>
   <si>
-    <t>394.0</t>
-  </si>
-  <si>
     <t>277.0</t>
   </si>
   <si>
-    <t>522.0</t>
-  </si>
-  <si>
     <t>519.0</t>
   </si>
   <si>
-    <t>451.0</t>
-  </si>
-  <si>
-    <t>252.0</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
     <t>229.0</t>
   </si>
   <si>
     <t>Time Zones</t>
   </si>
   <si>
-    <t>282.0</t>
-  </si>
-  <si>
     <t>VesselType</t>
   </si>
   <si>
@@ -1171,9 +1135,6 @@
     <t>Trade Zones</t>
   </si>
   <si>
-    <t>238.0</t>
-  </si>
-  <si>
     <t>221.0</t>
   </si>
   <si>
@@ -1183,54 +1144,30 @@
     <t>226.0</t>
   </si>
   <si>
-    <t>1976.0</t>
-  </si>
-  <si>
-    <t>261.0</t>
-  </si>
-  <si>
-    <t>457.0</t>
-  </si>
-  <si>
     <t>Schedular</t>
   </si>
   <si>
-    <t>553.0</t>
-  </si>
-  <si>
     <t>Dashboard Snippet Access</t>
   </si>
   <si>
     <t>251.0</t>
   </si>
   <si>
-    <t>1991.0</t>
-  </si>
-  <si>
     <t>Ship Menu Assignment</t>
   </si>
   <si>
-    <t>468.0</t>
-  </si>
-  <si>
     <t>Ship project Mgmt</t>
   </si>
   <si>
     <t>Ship Nav Project Mgmt</t>
   </si>
   <si>
-    <t>278.0</t>
-  </si>
-  <si>
     <t>License Key</t>
   </si>
   <si>
     <t>218.0</t>
   </si>
   <si>
-    <t>310.0</t>
-  </si>
-  <si>
     <t>340.0</t>
   </si>
   <si>
@@ -1243,9 +1180,6 @@
     <t>Configure File Size</t>
   </si>
   <si>
-    <t>318.0</t>
-  </si>
-  <si>
     <t>Company Action Mail</t>
   </si>
   <si>
@@ -1264,24 +1198,15 @@
     <t>198.0</t>
   </si>
   <si>
-    <t>473.0</t>
-  </si>
-  <si>
     <t>Attachment Rule</t>
   </si>
   <si>
     <t>196.0</t>
   </si>
   <si>
-    <t>204.0</t>
-  </si>
-  <si>
     <t>Joining Type</t>
   </si>
   <si>
-    <t>287.0</t>
-  </si>
-  <si>
     <t>271.0</t>
   </si>
   <si>
@@ -1294,78 +1219,30 @@
     <t>Approval Group</t>
   </si>
   <si>
-    <t>214.0</t>
-  </si>
-  <si>
     <t>Approval Limit</t>
   </si>
   <si>
-    <t>393.0</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
-    <t>353.0</t>
-  </si>
-  <si>
     <t>Menu Help Setting</t>
   </si>
   <si>
-    <t>12680.0</t>
-  </si>
-  <si>
-    <t>186.0</t>
-  </si>
-  <si>
-    <t>203.0</t>
-  </si>
-  <si>
-    <t>1966.0</t>
-  </si>
-  <si>
-    <t>3619.0</t>
-  </si>
-  <si>
-    <t>2812.0</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>837.0</t>
-  </si>
-  <si>
     <t>Add/Edit Crew Details</t>
   </si>
   <si>
-    <t>295.0</t>
-  </si>
-  <si>
     <t>Interview Admin</t>
   </si>
   <si>
-    <t>720.0</t>
-  </si>
-  <si>
     <t>Interview Library</t>
   </si>
   <si>
-    <t>601.0</t>
-  </si>
-  <si>
-    <t>18173.0</t>
-  </si>
-  <si>
     <t>Interview Planner</t>
   </si>
   <si>
-    <t>274.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
     <t>239.0</t>
   </si>
   <si>
@@ -1375,21 +1252,12 @@
     <t>206.0</t>
   </si>
   <si>
-    <t>555.0</t>
-  </si>
-  <si>
     <t>Crew Evaluation Library</t>
   </si>
   <si>
     <t>439.0</t>
   </si>
   <si>
-    <t>1586.0</t>
-  </si>
-  <si>
-    <t>285.0</t>
-  </si>
-  <si>
     <t>Crew Performance Snippet Settings</t>
   </si>
   <si>
@@ -1408,15 +1276,9 @@
     <t>CTM Requests</t>
   </si>
   <si>
-    <t>337.0</t>
-  </si>
-  <si>
     <t>Vessel Min CTM</t>
   </si>
   <si>
-    <t>188.0</t>
-  </si>
-  <si>
     <t>Rank-Wage Assignment</t>
   </si>
   <si>
@@ -1435,60 +1297,30 @@
     <t>193.0</t>
   </si>
   <si>
-    <t>269.0</t>
-  </si>
-  <si>
     <t>Approve Re-Joining Bonus</t>
   </si>
   <si>
-    <t>435.0</t>
-  </si>
-  <si>
     <t>342.0</t>
   </si>
   <si>
     <t>Agency Fee</t>
   </si>
   <si>
-    <t>7067.0</t>
-  </si>
-  <si>
     <t>Manning Office Fees</t>
   </si>
   <si>
-    <t>487.0</t>
-  </si>
-  <si>
     <t>225.0</t>
   </si>
   <si>
-    <t>749.0</t>
-  </si>
-  <si>
     <t>CrewMail</t>
   </si>
   <si>
-    <t>345.0</t>
-  </si>
-  <si>
     <t>Crew MailBox</t>
   </si>
   <si>
-    <t>373.0</t>
-  </si>
-  <si>
-    <t>1526.0</t>
-  </si>
-  <si>
-    <t>894.0</t>
-  </si>
-  <si>
     <t>Crew Missing Data Report</t>
   </si>
   <si>
-    <t>185.0</t>
-  </si>
-  <si>
     <t>406.0</t>
   </si>
   <si>
@@ -1498,9 +1330,6 @@
     <t>304.0</t>
   </si>
   <si>
-    <t>363.0</t>
-  </si>
-  <si>
     <t>Voyages Reports</t>
   </si>
   <si>
@@ -1510,15 +1339,9 @@
     <t>CP Entry</t>
   </si>
   <si>
-    <t>308.0</t>
-  </si>
-  <si>
     <t>Bunker Report List</t>
   </si>
   <si>
-    <t>997.0</t>
-  </si>
-  <si>
     <t>Port Report Index</t>
   </si>
   <si>
@@ -1531,42 +1354,21 @@
     <t>Lube Oil Sample Analysis</t>
   </si>
   <si>
-    <t>390.0</t>
-  </si>
-  <si>
     <t>489.0</t>
   </si>
   <si>
     <t>Bunker Sample Analysis</t>
   </si>
   <si>
-    <t>464.0</t>
-  </si>
-  <si>
-    <t>389.0</t>
-  </si>
-  <si>
     <t>Deck Log Book Index</t>
   </si>
   <si>
-    <t>264.0</t>
-  </si>
-  <si>
     <t>Hold Tank</t>
   </si>
   <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>2189.0</t>
-  </si>
-  <si>
     <t>259.0</t>
   </si>
   <si>
-    <t>1001.0</t>
-  </si>
-  <si>
     <t>413.0</t>
   </si>
   <si>
@@ -1579,15 +1381,9 @@
     <t>Operations - WorkList</t>
   </si>
   <si>
-    <t>484.0</t>
-  </si>
-  <si>
     <t>Charter Party List</t>
   </si>
   <si>
-    <t>514.0</t>
-  </si>
-  <si>
     <t>Charterer Openings</t>
   </si>
   <si>
@@ -1600,21 +1396,9 @@
     <t>Remittance Receipts</t>
   </si>
   <si>
-    <t>284.0</t>
-  </si>
-  <si>
     <t>Quality Management System</t>
   </si>
   <si>
-    <t>190.0</t>
-  </si>
-  <si>
-    <t>207.0</t>
-  </si>
-  <si>
-    <t>1011.0</t>
-  </si>
-  <si>
     <t>EMS Report</t>
   </si>
   <si>
@@ -1633,418 +1417,616 @@
     <t>Fleet Broadcast Messages</t>
   </si>
   <si>
+    <t>Vessel Issue Assignment</t>
+  </si>
+  <si>
+    <t>Master’s Review Response</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>Vessels Drill Report Summary</t>
+  </si>
+  <si>
+    <t>Work/Rest Hours Index</t>
+  </si>
+  <si>
+    <t>Overtime Details</t>
+  </si>
+  <si>
+    <t>Rest Hour Rule</t>
+  </si>
+  <si>
+    <t>Rest Hours Report</t>
+  </si>
+  <si>
+    <t>258.0</t>
+  </si>
+  <si>
+    <t>File Management System</t>
+  </si>
+  <si>
+    <t>Form Type Library</t>
+  </si>
+  <si>
+    <t>Risk Assessment Index</t>
+  </si>
+  <si>
+    <t>338.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>KPI -CO2 Efficiency</t>
+  </si>
+  <si>
+    <t>Vessel CO2 Efficiency</t>
+  </si>
+  <si>
+    <t>KPI -NOx Efficiency</t>
+  </si>
+  <si>
+    <t>Vessel NOx Efficiency</t>
+  </si>
+  <si>
+    <t>Vessel SOx Efficiency</t>
+  </si>
+  <si>
+    <t>Create New Requisition</t>
+  </si>
+  <si>
+    <t>View Requisition Summary</t>
+  </si>
+  <si>
+    <t>412.0</t>
+  </si>
+  <si>
+    <t>Attached File Information</t>
+  </si>
+  <si>
+    <t>Items Inventory</t>
+  </si>
+  <si>
+    <t>Machinery Information</t>
+  </si>
+  <si>
+    <t>Purchasing Report</t>
+  </si>
+  <si>
+    <t>Create New Logistic PO</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>Create new contract</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>List of Contract</t>
+  </si>
+  <si>
+    <t>View non contract items</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>325.0</t>
+  </si>
+  <si>
+    <t>User Type Assignment</t>
+  </si>
+  <si>
+    <t>Group Setting</t>
+  </si>
+  <si>
+    <t>490.0</t>
+  </si>
+  <si>
+    <t>Job Status</t>
+  </si>
+  <si>
+    <t>Job History</t>
+  </si>
+  <si>
+    <t>303.0</t>
+  </si>
+  <si>
+    <t>PMS Jobs</t>
+  </si>
+  <si>
+    <t>Machinary Change Request</t>
+  </si>
+  <si>
+    <t>PMS Jobs Pending</t>
+  </si>
+  <si>
+    <t>Job Progress</t>
+  </si>
+  <si>
+    <t>Job Details</t>
+  </si>
+  <si>
+    <t>Equipment statistics</t>
+  </si>
+  <si>
+    <t>Critical Equipment Index</t>
+  </si>
+  <si>
+    <t>Equipment Replacement History</t>
+  </si>
+  <si>
+    <t>System Running Hours</t>
+  </si>
+  <si>
+    <t>Engine Log Book Index</t>
+  </si>
+  <si>
+    <t>Convert audio to text</t>
+  </si>
+  <si>
+    <t>347.0</t>
+  </si>
+  <si>
+    <t>Surveylist</t>
+  </si>
+  <si>
+    <t>Vessel Calendar</t>
+  </si>
+  <si>
+    <t>Suprintendent Inspection Attendance</t>
+  </si>
+  <si>
+    <t>Checklist Type Library</t>
+  </si>
+  <si>
+    <t>Inspection Checklist Index</t>
+  </si>
+  <si>
+    <t>Inspection Checklist</t>
+  </si>
+  <si>
+    <t>254.0</t>
+  </si>
+  <si>
+    <t>JiBE:Yearly Inspection Summary</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>PMS Overdue Rate</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>Incidents With Death</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>Vetting Questionnaire Index</t>
+  </si>
+  <si>
+    <t>Vetting Questionnaire Details</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>Travel Requests</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>Refund Requests</t>
+  </si>
+  <si>
+    <t>Travel Request List</t>
+  </si>
+  <si>
+    <t>Training/Drill List</t>
+  </si>
+  <si>
+    <t>Scheduled Training/Drill List</t>
+  </si>
+  <si>
+    <t>'Training/Drill To Sync</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>Vessel KPI</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>294.0</t>
+  </si>
+  <si>
+    <t>15213.0</t>
+  </si>
+  <si>
+    <t>1264.0</t>
+  </si>
+  <si>
+    <t>366.0</t>
+  </si>
+  <si>
+    <t>524.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>455.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>236.0</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>237.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>2254.0</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>567.0</t>
+  </si>
+  <si>
+    <t>2011.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>352.0</t>
+  </si>
+  <si>
+    <t>14802.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>2106.0</t>
+  </si>
+  <si>
+    <t>4184.0</t>
+  </si>
+  <si>
+    <t>2983.0</t>
+  </si>
+  <si>
+    <t>847.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>719.0</t>
+  </si>
+  <si>
+    <t>587.0</t>
+  </si>
+  <si>
+    <t>20697.0</t>
+  </si>
+  <si>
+    <t>283.0</t>
+  </si>
+  <si>
+    <t>385.0</t>
+  </si>
+  <si>
+    <t>577.0</t>
+  </si>
+  <si>
+    <t>1669.0</t>
+  </si>
+  <si>
+    <t>348.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>7420.0</t>
+  </si>
+  <si>
+    <t>723.0</t>
+  </si>
+  <si>
+    <t>1582.0</t>
+  </si>
+  <si>
+    <t>923.0</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>1023.0</t>
+  </si>
+  <si>
+    <t>403.0</t>
+  </si>
+  <si>
+    <t>491.0</t>
+  </si>
+  <si>
+    <t>476.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>2318.0</t>
+  </si>
+  <si>
+    <t>1026.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>1092.0</t>
+  </si>
+  <si>
+    <t>232.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>411.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>1242.0</t>
+  </si>
+  <si>
+    <t>1350.0</t>
+  </si>
+  <si>
+    <t>14641.0</t>
+  </si>
+  <si>
+    <t>463.0</t>
+  </si>
+  <si>
+    <t>2409.0</t>
+  </si>
+  <si>
+    <t>282384.0</t>
+  </si>
+  <si>
+    <t>992.0</t>
+  </si>
+  <si>
+    <t>699.0</t>
+  </si>
+  <si>
+    <t>677.0</t>
+  </si>
+  <si>
+    <t>2322.0</t>
+  </si>
+  <si>
+    <t>698.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>375.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>2369.0</t>
+  </si>
+  <si>
+    <t>661.0</t>
+  </si>
+  <si>
+    <t>361.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>326.0</t>
+  </si>
+  <si>
+    <t>1116.0</t>
+  </si>
+  <si>
+    <t>668.0</t>
+  </si>
+  <si>
+    <t>627.0</t>
+  </si>
+  <si>
+    <t>386.0</t>
+  </si>
+  <si>
+    <t>727.0</t>
+  </si>
+  <si>
+    <t>2317.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>846.0</t>
+  </si>
+  <si>
+    <t>544.0</t>
+  </si>
+  <si>
+    <t>1057.0</t>
+  </si>
+  <si>
+    <t>349.0</t>
+  </si>
+  <si>
+    <t>415.0</t>
+  </si>
+  <si>
+    <t>418.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>809.0</t>
+  </si>
+  <si>
+    <t>2257.0</t>
+  </si>
+  <si>
+    <t>807.0</t>
+  </si>
+  <si>
+    <t>804.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>792.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>307.0</t>
+  </si>
+  <si>
+    <t>335.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>434.0</t>
+  </si>
+  <si>
+    <t>18534.0</t>
+  </si>
+  <si>
+    <t>423.0</t>
+  </si>
+  <si>
+    <t>645.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>1185.0</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>1993.0</t>
+  </si>
+  <si>
     <t>248.0</t>
   </si>
   <si>
-    <t>Vessel Issue Assignment</t>
-  </si>
-  <si>
-    <t>Master’s Review Response</t>
-  </si>
-  <si>
-    <t>213.0</t>
-  </si>
-  <si>
-    <t>Vessels Drill Report Summary</t>
-  </si>
-  <si>
-    <t>Work/Rest Hours Index</t>
-  </si>
-  <si>
-    <t>Overtime Details</t>
-  </si>
-  <si>
-    <t>Rest Hour Rule</t>
-  </si>
-  <si>
-    <t>Rest Hours Report</t>
-  </si>
-  <si>
-    <t>258.0</t>
-  </si>
-  <si>
-    <t>File Management System</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>Form Type Library</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>Risk Assessment Index</t>
-  </si>
-  <si>
-    <t>338.0</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>291.0</t>
-  </si>
-  <si>
-    <t>242.0</t>
-  </si>
-  <si>
-    <t>187.0</t>
-  </si>
-  <si>
-    <t>398.0</t>
-  </si>
-  <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>KPI -CO2 Efficiency</t>
-  </si>
-  <si>
-    <t>Vessel CO2 Efficiency</t>
-  </si>
-  <si>
-    <t>KPI -NOx Efficiency</t>
-  </si>
-  <si>
-    <t>302.0</t>
-  </si>
-  <si>
-    <t>Vessel NOx Efficiency</t>
-  </si>
-  <si>
-    <t>Vessel SOx Efficiency</t>
-  </si>
-  <si>
-    <t>1114.0</t>
-  </si>
-  <si>
-    <t>1260.0</t>
-  </si>
-  <si>
-    <t>Create New Requisition</t>
-  </si>
-  <si>
-    <t>12436.0</t>
-  </si>
-  <si>
-    <t>View Requisition Summary</t>
-  </si>
-  <si>
-    <t>412.0</t>
-  </si>
-  <si>
-    <t>Attached File Information</t>
-  </si>
-  <si>
-    <t>299.0</t>
-  </si>
-  <si>
-    <t>Items Inventory</t>
-  </si>
-  <si>
-    <t>2098.0</t>
-  </si>
-  <si>
-    <t>Machinery Information</t>
-  </si>
-  <si>
-    <t>235303.0</t>
-  </si>
-  <si>
-    <t>Purchasing Report</t>
-  </si>
-  <si>
-    <t>1008.0</t>
-  </si>
-  <si>
-    <t>680.0</t>
-  </si>
-  <si>
-    <t>659.0</t>
-  </si>
-  <si>
-    <t>1983.0</t>
-  </si>
-  <si>
-    <t>666.0</t>
-  </si>
-  <si>
-    <t>Create New Logistic PO</t>
-  </si>
-  <si>
-    <t>336.0</t>
-  </si>
-  <si>
-    <t>Create new contract</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>List of Contract</t>
-  </si>
-  <si>
-    <t>359.0</t>
-  </si>
-  <si>
-    <t>View non contract items</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>481.0</t>
-  </si>
-  <si>
-    <t>2188.0</t>
-  </si>
-  <si>
-    <t>325.0</t>
-  </si>
-  <si>
-    <t>User Type Assignment</t>
-  </si>
-  <si>
-    <t>635.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>Group Setting</t>
-  </si>
-  <si>
-    <t>490.0</t>
-  </si>
-  <si>
-    <t>Job Status</t>
-  </si>
-  <si>
-    <t>1117.0</t>
-  </si>
-  <si>
-    <t>Job History</t>
-  </si>
-  <si>
-    <t>303.0</t>
-  </si>
-  <si>
-    <t>PMS Jobs</t>
-  </si>
-  <si>
-    <t>1097.0</t>
-  </si>
-  <si>
-    <t>Machinary Change Request</t>
-  </si>
-  <si>
-    <t>PMS Jobs Pending</t>
-  </si>
-  <si>
-    <t>638.0</t>
-  </si>
-  <si>
-    <t>Job Progress</t>
-  </si>
-  <si>
-    <t>Job Details</t>
-  </si>
-  <si>
-    <t>594.0</t>
-  </si>
-  <si>
-    <t>Equipment statistics</t>
-  </si>
-  <si>
-    <t>Critical Equipment Index</t>
-  </si>
-  <si>
-    <t>369.0</t>
-  </si>
-  <si>
-    <t>Equipment Replacement History</t>
-  </si>
-  <si>
-    <t>System Running Hours</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>548.0</t>
-  </si>
-  <si>
-    <t>184.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>Engine Log Book Index</t>
-  </si>
-  <si>
-    <t>297.0</t>
-  </si>
-  <si>
-    <t>694.0</t>
-  </si>
-  <si>
-    <t>Convert audio to text</t>
-  </si>
-  <si>
-    <t>2383.0</t>
-  </si>
-  <si>
-    <t>347.0</t>
-  </si>
-  <si>
-    <t>Surveylist</t>
-  </si>
-  <si>
-    <t>742.0</t>
-  </si>
-  <si>
-    <t>Vessel Calendar</t>
-  </si>
-  <si>
-    <t>Suprintendent Inspection Attendance</t>
-  </si>
-  <si>
-    <t>528.0</t>
-  </si>
-  <si>
-    <t>Checklist Type Library</t>
-  </si>
-  <si>
-    <t>932.0</t>
-  </si>
-  <si>
-    <t>Inspection Checklist Index</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>Inspection Checklist</t>
-  </si>
-  <si>
-    <t>254.0</t>
-  </si>
-  <si>
-    <t>JiBE:Yearly Inspection Summary</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>PMS Overdue Rate</t>
-  </si>
-  <si>
-    <t>401.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>358.0</t>
-  </si>
-  <si>
-    <t>313.0</t>
-  </si>
-  <si>
-    <t>Incidents With Death</t>
-  </si>
-  <si>
-    <t>368.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>744.0</t>
-  </si>
-  <si>
-    <t>2129.0</t>
-  </si>
-  <si>
-    <t>705.0</t>
-  </si>
-  <si>
-    <t>Vetting Questionnaire Index</t>
-  </si>
-  <si>
-    <t>782.0</t>
-  </si>
-  <si>
-    <t>Vetting Questionnaire Details</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>Travel Requests</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>Refund Requests</t>
-  </si>
-  <si>
-    <t>676.0</t>
-  </si>
-  <si>
-    <t>Travel Request List</t>
-  </si>
-  <si>
-    <t>Training/Drill List</t>
-  </si>
-  <si>
-    <t>Scheduled Training/Drill List</t>
-  </si>
-  <si>
-    <t>'Training/Drill To Sync</t>
-  </si>
-  <si>
-    <t>223.0</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>Vessel KPI</t>
-  </si>
-  <si>
-    <t>216.0</t>
-  </si>
-  <si>
-    <t>249.0</t>
-  </si>
-  <si>
-    <t>311.0</t>
-  </si>
-  <si>
-    <t>273.0</t>
-  </si>
-  <si>
-    <t>408.0</t>
-  </si>
-  <si>
-    <t>16152.0</t>
-  </si>
-  <si>
-    <t>526.0</t>
-  </si>
-  <si>
-    <t>209.0</t>
-  </si>
-  <si>
-    <t>1077.0</t>
+    <t>18530.0</t>
+  </si>
+  <si>
+    <t>922.0</t>
+  </si>
+  <si>
+    <t>772.0</t>
+  </si>
+  <si>
+    <t>2185.0</t>
+  </si>
+  <si>
+    <t>322.0</t>
+  </si>
+  <si>
+    <t>18748.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
   </si>
 </sst>
 </file>
@@ -2464,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:H250"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2464,7 @@
     <col min="8" max="8" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -2516,20 +2498,20 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2543,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>662</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -2552,7 +2534,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2566,16 +2548,16 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>663</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2589,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>664</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -2598,7 +2580,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2612,16 +2594,16 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>665</v>
       </c>
       <c r="G6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2635,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>666</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
@@ -2644,7 +2626,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2658,16 +2640,13 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2681,16 +2660,13 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2704,16 +2680,13 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2727,16 +2700,13 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>368</v>
+        <v>548</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2750,16 +2720,13 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2773,16 +2740,13 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>370</v>
+        <v>549</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2796,16 +2760,13 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>371</v>
+        <v>550</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2819,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>372</v>
+        <v>551</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -2828,7 +2789,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2842,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>552</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -2851,7 +2812,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -2874,7 +2835,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>553</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2897,7 +2858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2911,16 +2872,16 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2934,16 +2895,16 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>379</v>
+        <v>554</v>
       </c>
       <c r="G20" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2957,16 +2918,16 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>381</v>
+        <v>555</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2980,7 +2941,7 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2989,7 +2950,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3003,7 +2964,7 @@
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>556</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3012,7 +2973,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +2987,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>557</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -3035,7 +2996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3049,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -3058,7 +3019,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3072,16 +3033,16 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3095,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
@@ -3104,7 +3065,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3118,7 +3079,7 @@
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>387</v>
+        <v>560</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3127,7 +3088,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3138,16 +3099,16 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>389</v>
+        <v>561</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="H29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3158,16 +3119,16 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>391</v>
+        <v>558</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3178,16 +3139,16 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>392</v>
+        <v>562</v>
       </c>
       <c r="G31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H31" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3201,16 +3162,16 @@
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>394</v>
+        <v>563</v>
       </c>
       <c r="G32" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H32" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3224,16 +3185,16 @@
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="G33" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3247,16 +3208,16 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>397</v>
+        <v>545</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="H34" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3270,16 +3231,16 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="G35" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="H35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3293,7 +3254,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -3302,7 +3263,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3316,7 +3277,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3325,7 +3286,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3339,7 +3300,7 @@
         <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -3348,7 +3309,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3362,16 +3323,16 @@
         <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="H39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -3385,16 +3346,16 @@
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>564</v>
       </c>
       <c r="G40" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="H40" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -3408,16 +3369,16 @@
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>524</v>
       </c>
       <c r="G41" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3431,16 +3392,16 @@
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="H42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3454,16 +3415,16 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>411</v>
+        <v>565</v>
       </c>
       <c r="G43" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="H43" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3438,7 @@
         <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>499</v>
       </c>
       <c r="G44" t="s">
         <v>53</v>
@@ -3486,7 +3447,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3500,16 +3461,16 @@
         <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="G45" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="H45" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -3523,7 +3484,7 @@
         <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
         <v>55</v>
@@ -3532,7 +3493,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -3546,16 +3507,16 @@
         <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="G47" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -3569,7 +3530,7 @@
         <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
         <v>57</v>
@@ -3578,7 +3539,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -3592,16 +3553,16 @@
         <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="H49" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -3615,16 +3576,16 @@
         <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="G50" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="H50" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -3638,16 +3599,16 @@
         <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>567</v>
       </c>
       <c r="G51" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="H51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3661,16 +3622,16 @@
         <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>568</v>
       </c>
       <c r="G52" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="H52" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -3684,16 +3645,16 @@
         <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>569</v>
       </c>
       <c r="G53" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="H53" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -3707,7 +3668,7 @@
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>429</v>
+        <v>570</v>
       </c>
       <c r="G54" t="s">
         <v>64</v>
@@ -3716,7 +3677,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3730,7 +3691,7 @@
         <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="G55" t="s">
         <v>64</v>
@@ -3739,7 +3700,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3753,7 +3714,7 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G56" t="s">
         <v>55</v>
@@ -3762,7 +3723,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3773,16 +3734,16 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>571</v>
       </c>
       <c r="G57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H57" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -3793,16 +3754,16 @@
         <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>432</v>
+        <v>572</v>
       </c>
       <c r="G58" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H58" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -3816,7 +3777,7 @@
         <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>433</v>
+        <v>573</v>
       </c>
       <c r="G59" t="s">
         <v>68</v>
@@ -3825,7 +3786,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -3836,16 +3797,16 @@
         <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="G60" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="H60" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
@@ -3856,7 +3817,7 @@
         <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>574</v>
       </c>
       <c r="G61" t="s">
         <v>72</v>
@@ -3865,7 +3826,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -3876,16 +3837,16 @@
         <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>437</v>
+        <v>575</v>
       </c>
       <c r="G62" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="H62" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -3899,16 +3860,16 @@
         <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>576</v>
       </c>
       <c r="G63" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="H63" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3922,16 +3883,16 @@
         <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="H64" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -3945,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>442</v>
+        <v>578</v>
       </c>
       <c r="G65" t="s">
         <v>77</v>
@@ -3954,7 +3915,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -3965,16 +3926,16 @@
         <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>444</v>
+        <v>579</v>
       </c>
       <c r="G66" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="H66" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -3985,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="G67" t="s">
         <v>79</v>
@@ -3994,7 +3955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -4005,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>399</v>
+        <v>556</v>
       </c>
       <c r="G68" t="s">
         <v>80</v>
@@ -4014,7 +3975,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -4025,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="G69" t="s">
         <v>81</v>
@@ -4034,7 +3995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -4048,16 +4009,16 @@
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="G70" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="H70" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -4071,7 +4032,7 @@
         <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>449</v>
+        <v>581</v>
       </c>
       <c r="G71" t="s">
         <v>84</v>
@@ -4080,7 +4041,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -4094,16 +4055,16 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="G72" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="H72" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -4117,7 +4078,7 @@
         <v>85</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
         <v>85</v>
@@ -4126,7 +4087,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4101,7 @@
         <v>86</v>
       </c>
       <c r="F74" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="G74" t="s">
         <v>86</v>
@@ -4149,7 +4110,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -4163,16 +4124,16 @@
         <v>87</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="G75" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="H75" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -4186,16 +4147,16 @@
         <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G76" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="H76" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -4209,7 +4170,7 @@
         <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="G77" t="s">
         <v>90</v>
@@ -4218,7 +4179,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -4232,16 +4193,16 @@
         <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="G78" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="H78" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -4255,16 +4216,16 @@
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="G79" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="H79" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -4278,16 +4239,16 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="G80" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="H80" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -4301,16 +4262,16 @@
         <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="G81" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="H81" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -4324,16 +4285,16 @@
         <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G82" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="H82" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -4347,16 +4308,16 @@
         <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
+        <v>584</v>
       </c>
       <c r="G83" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="H83" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -4370,7 +4331,7 @@
         <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>543</v>
       </c>
       <c r="G84" t="s">
         <v>70</v>
@@ -4379,7 +4340,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -4393,16 +4354,16 @@
         <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="G85" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="H85" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -4416,7 +4377,7 @@
         <v>71</v>
       </c>
       <c r="F86" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G86" t="s">
         <v>71</v>
@@ -4425,7 +4386,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -4439,16 +4400,16 @@
         <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>474</v>
+        <v>586</v>
       </c>
       <c r="G87" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="H87" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -4462,16 +4423,16 @@
         <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="G88" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="H88" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -4482,7 +4443,7 @@
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>477</v>
+        <v>364</v>
       </c>
       <c r="G89" t="s">
         <v>101</v>
@@ -4491,7 +4452,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -4502,7 +4463,7 @@
         <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>478</v>
+        <v>587</v>
       </c>
       <c r="G90" t="s">
         <v>102</v>
@@ -4511,7 +4472,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -4525,16 +4486,16 @@
         <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="G91" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="H91" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -4548,16 +4509,16 @@
         <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="G92" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="H92" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -4571,7 +4532,7 @@
         <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>483</v>
+        <v>588</v>
       </c>
       <c r="G93" t="s">
         <v>107</v>
@@ -4580,7 +4541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -4594,7 +4555,7 @@
         <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>484</v>
+        <v>589</v>
       </c>
       <c r="G94" t="s">
         <v>108</v>
@@ -4603,7 +4564,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -4617,16 +4578,16 @@
         <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="G95" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="H95" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -4640,7 +4601,7 @@
         <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
       <c r="G96" t="s">
         <v>317</v>
@@ -4649,7 +4610,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -4660,16 +4621,16 @@
         <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G97" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="H97" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -4680,7 +4641,7 @@
         <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="G98" t="s">
         <v>112</v>
@@ -4689,7 +4650,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>37</v>
       </c>
@@ -4700,7 +4661,7 @@
         <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="G99" t="s">
         <v>113</v>
@@ -4709,7 +4670,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>37</v>
       </c>
@@ -4723,7 +4684,7 @@
         <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="G100" t="s">
         <v>115</v>
@@ -4732,7 +4693,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -4746,16 +4707,16 @@
         <v>116</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="G101" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="H101" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -4769,16 +4730,16 @@
         <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="G102" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="H102" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -4792,16 +4753,16 @@
         <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
       <c r="G103" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="H103" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -4815,16 +4776,16 @@
         <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="G104" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="H104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -4841,13 +4802,13 @@
         <v>492</v>
       </c>
       <c r="G105" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="H105" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -4861,16 +4822,16 @@
         <v>137</v>
       </c>
       <c r="F106" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="G106" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="H106" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -4884,16 +4845,16 @@
         <v>138</v>
       </c>
       <c r="F107" t="s">
-        <v>502</v>
+        <v>594</v>
       </c>
       <c r="G107" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="H107" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -4904,16 +4865,16 @@
         <v>121</v>
       </c>
       <c r="F108" t="s">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="G108" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="H108" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -4924,7 +4885,7 @@
         <v>122</v>
       </c>
       <c r="F109" t="s">
-        <v>505</v>
+        <v>596</v>
       </c>
       <c r="G109" t="s">
         <v>122</v>
@@ -4933,7 +4894,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -4944,16 +4905,16 @@
         <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="G110" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="H110" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -4964,16 +4925,16 @@
         <v>124</v>
       </c>
       <c r="F111" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="G111" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="H111" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +4948,7 @@
         <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>510</v>
+        <v>597</v>
       </c>
       <c r="G112" t="s">
         <v>125</v>
@@ -4996,7 +4957,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -5010,7 +4971,7 @@
         <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="G113" t="s">
         <v>128</v>
@@ -5019,7 +4980,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -5033,7 +4994,7 @@
         <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="G114" t="s">
         <v>129</v>
@@ -5042,7 +5003,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -5056,7 +5017,7 @@
         <v>130</v>
       </c>
       <c r="F115" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="G115" t="s">
         <v>130</v>
@@ -5065,7 +5026,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -5076,16 +5037,16 @@
         <v>132</v>
       </c>
       <c r="F116" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G116" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="H116" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -5096,16 +5057,16 @@
         <v>133</v>
       </c>
       <c r="F117" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="G117" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="H117" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -5116,16 +5077,16 @@
         <v>134</v>
       </c>
       <c r="F118" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="G118" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="H118" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>37</v>
       </c>
@@ -5139,16 +5100,16 @@
         <v>136</v>
       </c>
       <c r="F119" t="s">
-        <v>517</v>
+        <v>442</v>
       </c>
       <c r="G119" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="H119" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
@@ -5162,16 +5123,16 @@
         <v>140</v>
       </c>
       <c r="F120" t="s">
-        <v>519</v>
+        <v>363</v>
       </c>
       <c r="G120" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="H120" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -5185,16 +5146,16 @@
         <v>141</v>
       </c>
       <c r="F121" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="G121" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="H121" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -5208,16 +5169,16 @@
         <v>142</v>
       </c>
       <c r="F122" t="s">
-        <v>382</v>
+        <v>600</v>
       </c>
       <c r="G122" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="H122" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -5231,16 +5192,16 @@
         <v>143</v>
       </c>
       <c r="F123" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G123" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="H123" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>37</v>
       </c>
@@ -5254,16 +5215,16 @@
         <v>157</v>
       </c>
       <c r="F124" t="s">
-        <v>526</v>
+        <v>389</v>
       </c>
       <c r="G124" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="H124" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -5277,7 +5238,7 @@
         <v>158</v>
       </c>
       <c r="F125" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="G125" t="s">
         <v>158</v>
@@ -5286,7 +5247,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>37</v>
       </c>
@@ -5300,7 +5261,7 @@
         <v>159</v>
       </c>
       <c r="F126" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="G126" t="s">
         <v>159</v>
@@ -5309,7 +5270,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>37</v>
       </c>
@@ -5320,16 +5281,16 @@
         <v>160</v>
       </c>
       <c r="F127" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G127" t="s">
-        <v>529</v>
+        <v>457</v>
       </c>
       <c r="H127" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -5343,16 +5304,16 @@
         <v>162</v>
       </c>
       <c r="F128" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="G128" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="H128" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -5366,16 +5327,16 @@
         <v>163</v>
       </c>
       <c r="F129" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="G129" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="H129" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -5386,16 +5347,16 @@
         <v>164</v>
       </c>
       <c r="F130" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="G130" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
       <c r="H130" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -5406,16 +5367,16 @@
         <v>165</v>
       </c>
       <c r="F131" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G131" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="H131" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -5426,16 +5387,16 @@
         <v>166</v>
       </c>
       <c r="F132" t="s">
-        <v>538</v>
+        <v>371</v>
       </c>
       <c r="G132" t="s">
-        <v>537</v>
+        <v>464</v>
       </c>
       <c r="H132" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -5446,16 +5407,16 @@
         <v>167</v>
       </c>
       <c r="F133" t="s">
-        <v>538</v>
+        <v>371</v>
       </c>
       <c r="G133" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="H133" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -5466,16 +5427,16 @@
         <v>168</v>
       </c>
       <c r="F134" t="s">
-        <v>521</v>
+        <v>407</v>
       </c>
       <c r="G134" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="H134" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -5489,16 +5450,16 @@
         <v>170</v>
       </c>
       <c r="F135" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="G135" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="H135" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -5512,16 +5473,16 @@
         <v>171</v>
       </c>
       <c r="F136" t="s">
-        <v>399</v>
+        <v>544</v>
       </c>
       <c r="G136" t="s">
-        <v>541</v>
+        <v>468</v>
       </c>
       <c r="H136" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -5535,16 +5496,16 @@
         <v>172</v>
       </c>
       <c r="F137" t="s">
-        <v>422</v>
+        <v>604</v>
       </c>
       <c r="G137" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
       <c r="H137" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -5558,16 +5519,16 @@
         <v>173</v>
       </c>
       <c r="F138" t="s">
-        <v>544</v>
+        <v>374</v>
       </c>
       <c r="G138" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="H138" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -5581,16 +5542,16 @@
         <v>175</v>
       </c>
       <c r="F139" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="G139" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="H139" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -5604,7 +5565,7 @@
         <v>176</v>
       </c>
       <c r="F140" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="G140" t="s">
         <v>176</v>
@@ -5613,7 +5574,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -5627,7 +5588,7 @@
         <v>177</v>
       </c>
       <c r="F141" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="G141" t="s">
         <v>177</v>
@@ -5636,7 +5597,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -5650,16 +5611,16 @@
         <v>178</v>
       </c>
       <c r="F142" t="s">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="G142" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="H142" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -5673,7 +5634,7 @@
         <v>179</v>
       </c>
       <c r="F143" t="s">
-        <v>548</v>
+        <v>439</v>
       </c>
       <c r="G143" t="s">
         <v>179</v>
@@ -5682,7 +5643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -5696,16 +5657,16 @@
         <v>181</v>
       </c>
       <c r="F144" t="s">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="G144" t="s">
-        <v>549</v>
+        <v>474</v>
       </c>
       <c r="H144" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -5719,7 +5680,7 @@
         <v>182</v>
       </c>
       <c r="F145" t="s">
-        <v>551</v>
+        <v>364</v>
       </c>
       <c r="G145" t="s">
         <v>182</v>
@@ -5728,7 +5689,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -5742,7 +5703,7 @@
         <v>183</v>
       </c>
       <c r="F146" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G146" t="s">
         <v>183</v>
@@ -5751,7 +5712,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -5765,7 +5726,7 @@
         <v>184</v>
       </c>
       <c r="F147" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="G147" t="s">
         <v>184</v>
@@ -5774,7 +5735,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -5788,7 +5749,7 @@
         <v>185</v>
       </c>
       <c r="F148" t="s">
-        <v>554</v>
+        <v>435</v>
       </c>
       <c r="G148" t="s">
         <v>185</v>
@@ -5797,7 +5758,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -5811,7 +5772,7 @@
         <v>187</v>
       </c>
       <c r="F149" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="G149" t="s">
         <v>187</v>
@@ -5820,7 +5781,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -5834,7 +5795,7 @@
         <v>188</v>
       </c>
       <c r="F150" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="G150" t="s">
         <v>188</v>
@@ -5843,7 +5804,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -5857,7 +5818,7 @@
         <v>189</v>
       </c>
       <c r="F151" t="s">
-        <v>556</v>
+        <v>393</v>
       </c>
       <c r="G151" t="s">
         <v>189</v>
@@ -5866,7 +5827,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>37</v>
       </c>
@@ -5880,16 +5841,16 @@
         <v>191</v>
       </c>
       <c r="F152" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="G152" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="H152" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -5903,16 +5864,16 @@
         <v>192</v>
       </c>
       <c r="F153" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G153" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="H153" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -5926,16 +5887,16 @@
         <v>193</v>
       </c>
       <c r="F154" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="G154" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="H154" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -5949,16 +5910,16 @@
         <v>194</v>
       </c>
       <c r="F155" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="G155" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="H155" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -5972,16 +5933,16 @@
         <v>195</v>
       </c>
       <c r="F156" t="s">
-        <v>531</v>
+        <v>419</v>
       </c>
       <c r="G156" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="H156" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -5992,7 +5953,7 @@
         <v>196</v>
       </c>
       <c r="F157" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="G157" t="s">
         <v>196</v>
@@ -6001,7 +5962,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -6012,7 +5973,7 @@
         <v>197</v>
       </c>
       <c r="F158" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="G158" t="s">
         <v>197</v>
@@ -6021,7 +5982,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>37</v>
       </c>
@@ -6032,16 +5993,16 @@
         <v>200</v>
       </c>
       <c r="F159" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G159" t="s">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="H159" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>37</v>
       </c>
@@ -6052,7 +6013,7 @@
         <v>201</v>
       </c>
       <c r="F160" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="G160" t="s">
         <v>201</v>
@@ -6061,7 +6022,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>37</v>
       </c>
@@ -6075,16 +6036,16 @@
         <v>202</v>
       </c>
       <c r="F161" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="G161" t="s">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="H161" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -6098,16 +6059,16 @@
         <v>203</v>
       </c>
       <c r="F162" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G162" t="s">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="H162" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -6121,16 +6082,16 @@
         <v>205</v>
       </c>
       <c r="F163" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="G163" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
       <c r="H163" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -6144,16 +6105,16 @@
         <v>206</v>
       </c>
       <c r="F164" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="G164" t="s">
-        <v>573</v>
+        <v>487</v>
       </c>
       <c r="H164" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -6167,16 +6128,16 @@
         <v>207</v>
       </c>
       <c r="F165" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="G165" t="s">
-        <v>575</v>
+        <v>488</v>
       </c>
       <c r="H165" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>37</v>
       </c>
@@ -6190,7 +6151,7 @@
         <v>208</v>
       </c>
       <c r="F166" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="G166" t="s">
         <v>208</v>
@@ -6199,7 +6160,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
@@ -6213,7 +6174,7 @@
         <v>209</v>
       </c>
       <c r="F167" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="G167" t="s">
         <v>209</v>
@@ -6222,7 +6183,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>37</v>
       </c>
@@ -6236,7 +6197,7 @@
         <v>210</v>
       </c>
       <c r="F168" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="G168" t="s">
         <v>210</v>
@@ -6245,7 +6206,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>37</v>
       </c>
@@ -6259,7 +6220,7 @@
         <v>211</v>
       </c>
       <c r="F169" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="G169" t="s">
         <v>211</v>
@@ -6268,7 +6229,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -6282,16 +6243,16 @@
         <v>213</v>
       </c>
       <c r="F170" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="G170" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
       <c r="H170" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -6305,7 +6266,7 @@
         <v>214</v>
       </c>
       <c r="F171" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="G171" t="s">
         <v>212</v>
@@ -6314,7 +6275,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -6328,16 +6289,16 @@
         <v>216</v>
       </c>
       <c r="F172" t="s">
-        <v>584</v>
+        <v>369</v>
       </c>
       <c r="G172" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="H172" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -6351,16 +6312,16 @@
         <v>217</v>
       </c>
       <c r="F173" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="G173" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="H173" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -6374,16 +6335,16 @@
         <v>218</v>
       </c>
       <c r="F174" t="s">
-        <v>588</v>
+        <v>369</v>
       </c>
       <c r="G174" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="H174" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -6397,7 +6358,7 @@
         <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G175" t="s">
         <v>219</v>
@@ -6406,7 +6367,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -6417,16 +6378,16 @@
         <v>220</v>
       </c>
       <c r="F176" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="G176" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="H176" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -6440,7 +6401,7 @@
         <v>222</v>
       </c>
       <c r="F177" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="G177" t="s">
         <v>221</v>
@@ -6449,7 +6410,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -6463,7 +6424,7 @@
         <v>223</v>
       </c>
       <c r="F178" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="G178" t="s">
         <v>223</v>
@@ -6472,7 +6433,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -6486,7 +6447,7 @@
         <v>224</v>
       </c>
       <c r="F179" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="G179" t="s">
         <v>224</v>
@@ -6495,7 +6456,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -6509,16 +6470,16 @@
         <v>226</v>
       </c>
       <c r="F180" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="G180" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="H180" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -6532,7 +6493,7 @@
         <v>227</v>
       </c>
       <c r="F181" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="G181" t="s">
         <v>227</v>
@@ -6541,7 +6502,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -6555,16 +6516,16 @@
         <v>228</v>
       </c>
       <c r="F182" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="G182" t="s">
-        <v>595</v>
+        <v>498</v>
       </c>
       <c r="H182" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>37</v>
       </c>
@@ -6578,16 +6539,16 @@
         <v>246</v>
       </c>
       <c r="F183" t="s">
-        <v>598</v>
+        <v>360</v>
       </c>
       <c r="G183" t="s">
-        <v>597</v>
+        <v>500</v>
       </c>
       <c r="H183" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -6601,16 +6562,16 @@
         <v>247</v>
       </c>
       <c r="F184" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="G184" t="s">
-        <v>599</v>
+        <v>501</v>
       </c>
       <c r="H184" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -6624,16 +6585,16 @@
         <v>248</v>
       </c>
       <c r="F185" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="G185" t="s">
-        <v>601</v>
+        <v>503</v>
       </c>
       <c r="H185" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -6647,7 +6608,7 @@
         <v>249</v>
       </c>
       <c r="F186" t="s">
-        <v>318</v>
+        <v>521</v>
       </c>
       <c r="G186" t="s">
         <v>249</v>
@@ -6656,7 +6617,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -6670,16 +6631,16 @@
         <v>250</v>
       </c>
       <c r="F187" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G187" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
       <c r="H187" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -6693,16 +6654,16 @@
         <v>251</v>
       </c>
       <c r="F188" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="G188" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="H188" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -6716,16 +6677,16 @@
         <v>252</v>
       </c>
       <c r="F189" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="G189" t="s">
-        <v>606</v>
+        <v>506</v>
       </c>
       <c r="H189" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -6739,16 +6700,16 @@
         <v>253</v>
       </c>
       <c r="F190" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="G190" t="s">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="H190" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>37</v>
       </c>
@@ -6762,16 +6723,16 @@
         <v>254</v>
       </c>
       <c r="F191" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G191" t="s">
-        <v>609</v>
+        <v>508</v>
       </c>
       <c r="H191" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -6785,16 +6746,16 @@
         <v>255</v>
       </c>
       <c r="F192" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="G192" t="s">
-        <v>610</v>
+        <v>509</v>
       </c>
       <c r="H192" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -6808,16 +6769,16 @@
         <v>256</v>
       </c>
       <c r="F193" t="s">
-        <v>381</v>
+        <v>552</v>
       </c>
       <c r="G193" t="s">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="H193" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -6831,16 +6792,16 @@
         <v>257</v>
       </c>
       <c r="F194" t="s">
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="G194" t="s">
-        <v>613</v>
+        <v>511</v>
       </c>
       <c r="H194" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -6854,7 +6815,7 @@
         <v>258</v>
       </c>
       <c r="F195" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="G195" t="s">
         <v>258</v>
@@ -6863,7 +6824,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -6877,7 +6838,7 @@
         <v>259</v>
       </c>
       <c r="F196" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="G196" t="s">
         <v>259</v>
@@ -6886,7 +6847,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -6900,7 +6861,7 @@
         <v>260</v>
       </c>
       <c r="F197" t="s">
-        <v>616</v>
+        <v>435</v>
       </c>
       <c r="G197" t="s">
         <v>260</v>
@@ -6909,7 +6870,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -6923,7 +6884,7 @@
         <v>260</v>
       </c>
       <c r="F198" t="s">
-        <v>617</v>
+        <v>413</v>
       </c>
       <c r="G198" t="s">
         <v>260</v>
@@ -6932,7 +6893,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -6943,16 +6904,16 @@
         <v>261</v>
       </c>
       <c r="F199" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="G199" t="s">
-        <v>618</v>
+        <v>512</v>
       </c>
       <c r="H199" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -6966,7 +6927,7 @@
         <v>262</v>
       </c>
       <c r="F200" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="G200" t="s">
         <v>134</v>
@@ -6975,7 +6936,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -6989,16 +6950,16 @@
         <v>264</v>
       </c>
       <c r="F201" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="G201" t="s">
-        <v>621</v>
+        <v>513</v>
       </c>
       <c r="H201" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -7009,7 +6970,7 @@
         <v>265</v>
       </c>
       <c r="F202" t="s">
-        <v>623</v>
+        <v>529</v>
       </c>
       <c r="G202" t="s">
         <v>265</v>
@@ -7018,7 +6979,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -7032,16 +6993,16 @@
         <v>267</v>
       </c>
       <c r="F203" t="s">
-        <v>494</v>
+        <v>632</v>
       </c>
       <c r="G203" t="s">
-        <v>624</v>
+        <v>515</v>
       </c>
       <c r="H203" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -7055,7 +7016,7 @@
         <v>269</v>
       </c>
       <c r="F204" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="G204" t="s">
         <v>268</v>
@@ -7064,7 +7025,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -7078,16 +7039,16 @@
         <v>270</v>
       </c>
       <c r="F205" t="s">
-        <v>318</v>
+        <v>471</v>
       </c>
       <c r="G205" t="s">
-        <v>626</v>
+        <v>516</v>
       </c>
       <c r="H205" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -7101,16 +7062,16 @@
         <v>271</v>
       </c>
       <c r="F206" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G206" t="s">
-        <v>627</v>
+        <v>517</v>
       </c>
       <c r="H206" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>37</v>
       </c>
@@ -7124,7 +7085,7 @@
         <v>272</v>
       </c>
       <c r="F207" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G207" t="s">
         <v>85</v>
@@ -7133,7 +7094,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -7147,16 +7108,16 @@
         <v>273</v>
       </c>
       <c r="F208" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="G208" t="s">
-        <v>629</v>
+        <v>518</v>
       </c>
       <c r="H208" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -7170,16 +7131,16 @@
         <v>274</v>
       </c>
       <c r="F209" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="G209" t="s">
-        <v>631</v>
+        <v>519</v>
       </c>
       <c r="H209" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>37</v>
       </c>
@@ -7193,16 +7154,16 @@
         <v>275</v>
       </c>
       <c r="F210" t="s">
-        <v>634</v>
+        <v>358</v>
       </c>
       <c r="G210" t="s">
-        <v>633</v>
+        <v>520</v>
       </c>
       <c r="H210" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>37</v>
       </c>
@@ -7219,13 +7180,13 @@
         <v>636</v>
       </c>
       <c r="G211" t="s">
-        <v>635</v>
+        <v>522</v>
       </c>
       <c r="H211" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -7236,7 +7197,7 @@
         <v>278</v>
       </c>
       <c r="F212" t="s">
-        <v>637</v>
+        <v>367</v>
       </c>
       <c r="G212" t="s">
         <v>278</v>
@@ -7245,7 +7206,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -7256,16 +7217,16 @@
         <v>279</v>
       </c>
       <c r="F213" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G213" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="H213" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -7279,16 +7240,16 @@
         <v>279</v>
       </c>
       <c r="F214" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G214" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="H214" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -7302,7 +7263,7 @@
         <v>280</v>
       </c>
       <c r="F215" t="s">
-        <v>641</v>
+        <v>484</v>
       </c>
       <c r="G215" t="s">
         <v>280</v>
@@ -7311,7 +7272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -7325,7 +7286,7 @@
         <v>281</v>
       </c>
       <c r="F216" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="G216" t="s">
         <v>281</v>
@@ -7334,7 +7295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -7348,7 +7309,7 @@
         <v>282</v>
       </c>
       <c r="F217" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="G217" t="s">
         <v>282</v>
@@ -7357,7 +7318,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -7371,16 +7332,16 @@
         <v>283</v>
       </c>
       <c r="F218" t="s">
-        <v>642</v>
+        <v>380</v>
       </c>
       <c r="G218" t="s">
-        <v>643</v>
+        <v>528</v>
       </c>
       <c r="H218" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -7394,7 +7355,7 @@
         <v>285</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>593</v>
       </c>
       <c r="G219" t="s">
         <v>285</v>
@@ -7403,7 +7364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -7417,7 +7378,7 @@
         <v>286</v>
       </c>
       <c r="F220" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="G220" t="s">
         <v>286</v>
@@ -7426,7 +7387,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -7440,7 +7401,7 @@
         <v>287</v>
       </c>
       <c r="F221" t="s">
-        <v>645</v>
+        <v>427</v>
       </c>
       <c r="G221" t="s">
         <v>287</v>
@@ -7449,7 +7410,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -7463,7 +7424,7 @@
         <v>292</v>
       </c>
       <c r="F222" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G222" t="s">
         <v>292</v>
@@ -7472,7 +7433,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7447,7 @@
         <v>293</v>
       </c>
       <c r="F223" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G223" t="s">
         <v>293</v>
@@ -7495,7 +7456,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -7509,7 +7470,7 @@
         <v>294</v>
       </c>
       <c r="F224" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G224" t="s">
         <v>294</v>
@@ -7518,7 +7479,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -7532,16 +7493,16 @@
         <v>297</v>
       </c>
       <c r="F225" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G225" t="s">
-        <v>649</v>
+        <v>531</v>
       </c>
       <c r="H225" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -7555,16 +7516,16 @@
         <v>298</v>
       </c>
       <c r="F226" t="s">
-        <v>533</v>
+        <v>405</v>
       </c>
       <c r="G226" t="s">
-        <v>651</v>
+        <v>532</v>
       </c>
       <c r="H226" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -7578,7 +7539,7 @@
         <v>300</v>
       </c>
       <c r="F227" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="G227" t="s">
         <v>300</v>
@@ -7587,7 +7548,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>37</v>
       </c>
@@ -7598,7 +7559,7 @@
         <v>325</v>
       </c>
       <c r="F228" t="s">
-        <v>652</v>
+        <v>490</v>
       </c>
       <c r="G228" t="s">
         <v>325</v>
@@ -7607,7 +7568,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>37</v>
       </c>
@@ -7618,16 +7579,16 @@
         <v>326</v>
       </c>
       <c r="F229" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G229" t="s">
-        <v>653</v>
+        <v>534</v>
       </c>
       <c r="H229" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -7638,16 +7599,16 @@
         <v>327</v>
       </c>
       <c r="F230" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G230" t="s">
-        <v>655</v>
+        <v>536</v>
       </c>
       <c r="H230" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>37</v>
       </c>
@@ -7658,16 +7619,16 @@
         <v>337</v>
       </c>
       <c r="F231" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="G231" t="s">
-        <v>657</v>
+        <v>537</v>
       </c>
       <c r="H231" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>37</v>
       </c>
@@ -7678,16 +7639,16 @@
         <v>307</v>
       </c>
       <c r="F232" t="s">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="G232" t="s">
-        <v>658</v>
+        <v>538</v>
       </c>
       <c r="H232" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -7698,7 +7659,7 @@
         <v>339</v>
       </c>
       <c r="F233" t="s">
-        <v>426</v>
+        <v>646</v>
       </c>
       <c r="G233" t="s">
         <v>339</v>
@@ -7707,7 +7668,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -7718,16 +7679,16 @@
         <v>340</v>
       </c>
       <c r="F234" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="G234" t="s">
-        <v>659</v>
+        <v>539</v>
       </c>
       <c r="H234" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>37</v>
       </c>
@@ -7738,16 +7699,16 @@
         <v>341</v>
       </c>
       <c r="F235" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="G235" t="s">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="H235" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>37</v>
       </c>
@@ -7761,7 +7722,7 @@
         <v>343</v>
       </c>
       <c r="F236" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="G236" t="s">
         <v>343</v>
@@ -7770,7 +7731,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>37</v>
       </c>
@@ -7781,16 +7742,16 @@
         <v>346</v>
       </c>
       <c r="F237" t="s">
-        <v>664</v>
+        <v>371</v>
       </c>
       <c r="G237" t="s">
-        <v>663</v>
+        <v>542</v>
       </c>
       <c r="H237" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -7801,7 +7762,7 @@
         <v>347</v>
       </c>
       <c r="F238" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="G238" t="s">
         <v>347</v>
@@ -7810,7 +7771,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>37</v>
       </c>
@@ -7821,7 +7782,7 @@
         <v>348</v>
       </c>
       <c r="F239" t="s">
-        <v>666</v>
+        <v>496</v>
       </c>
       <c r="G239" t="s">
         <v>348</v>
@@ -7830,7 +7791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>37</v>
       </c>
@@ -7841,7 +7802,7 @@
         <v>349</v>
       </c>
       <c r="F240" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="G240" t="s">
         <v>349</v>
@@ -7850,7 +7811,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>37</v>
       </c>
@@ -7861,7 +7822,7 @@
         <v>317</v>
       </c>
       <c r="F241" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="G241" t="s">
         <v>317</v>
@@ -7870,7 +7831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>37</v>
       </c>
@@ -7881,7 +7842,7 @@
         <v>350</v>
       </c>
       <c r="F242" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="G242" t="s">
         <v>350</v>
@@ -7890,7 +7851,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>37</v>
       </c>
@@ -7901,16 +7862,16 @@
         <v>279</v>
       </c>
       <c r="F243" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="G243" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="H243" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>37</v>
       </c>
@@ -7921,7 +7882,7 @@
         <v>351</v>
       </c>
       <c r="F244" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G244" t="s">
         <v>317</v>
@@ -7930,7 +7891,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>37</v>
       </c>
@@ -7941,7 +7902,7 @@
         <v>352</v>
       </c>
       <c r="F245" t="s">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="G245" t="s">
         <v>352</v>
@@ -7950,7 +7911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>37</v>
       </c>
@@ -7961,7 +7922,7 @@
         <v>309</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>654</v>
       </c>
       <c r="G246" t="s">
         <v>320</v>
@@ -7970,7 +7931,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>37</v>
       </c>
@@ -7981,7 +7942,7 @@
         <v>310</v>
       </c>
       <c r="F247" t="s">
-        <v>671</v>
+        <v>565</v>
       </c>
       <c r="G247" t="s">
         <v>312</v>
@@ -7990,7 +7951,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>37</v>
       </c>
@@ -8001,7 +7962,7 @@
         <v>311</v>
       </c>
       <c r="F248" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G248" t="s">
         <v>321</v>
@@ -8010,7 +7971,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>37</v>
       </c>
@@ -8021,7 +7982,7 @@
         <v>312</v>
       </c>
       <c r="F249" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="G249" t="s">
         <v>312</v>
